--- a/backend/data/domecq/IRA_data_update_DOMECQ.xlsx
+++ b/backend/data/domecq/IRA_data_update_DOMECQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingrid.valero\OneDrive - FINAC S.A.S\Documents\Enviado por LG\Domeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humbertozuluaga/Documents/PROYECTOS/PythonProjects/vueflaskformularios/backend/data/domecq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129722F8-53E2-437C-8222-7D7C6B565B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA816D8C-4A8E-974A-A788-C055C8E71BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="495" windowWidth="29115" windowHeight="18240" firstSheet="5" activeTab="6" xr2:uid="{52CC5870-0867-48B7-840C-744248B71BA3}"/>
+    <workbookView xWindow="480" yWindow="1340" windowWidth="20000" windowHeight="24560" firstSheet="7" activeTab="12" xr2:uid="{52CC5870-0867-48B7-840C-744248B71BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Posibles_rtas" sheetId="9" r:id="rId10"/>
     <sheet name="Preguntas" sheetId="10" r:id="rId11"/>
     <sheet name="Preg-NetworkMode" sheetId="11" r:id="rId12"/>
+    <sheet name="Narrativas_topicos" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Nodes!$A$1:$G$34</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="226">
   <si>
     <t>Nombre_es</t>
   </si>
@@ -92,21 +93,9 @@
     <t>bimodal</t>
   </si>
   <si>
-    <t>Recursos</t>
-  </si>
-  <si>
     <t>resource</t>
   </si>
   <si>
-    <t>explora</t>
-  </si>
-  <si>
-    <t>Recurso</t>
-  </si>
-  <si>
-    <t>DataWise</t>
-  </si>
-  <si>
     <t>id_node_segment</t>
   </si>
   <si>
@@ -654,6 +643,81 @@
   </si>
   <si>
     <t>[{"texto":"Ninguna", "valor":0 },{"texto":"Lo ejecuto","valor":1 },{"texto":"Le envío información", "valor":2},{"texto":"Uso el resultado", "valor":3}]</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>max_selections</t>
+  </si>
+  <si>
+    <t>Conocimientos de Herramientas</t>
+  </si>
+  <si>
+    <t>topic_es</t>
+  </si>
+  <si>
+    <t>topic_en</t>
+  </si>
+  <si>
+    <t>¿Qué propone para que el trabajo en equipo permita lograr entre todos los objetivos de la compañía?</t>
+  </si>
+  <si>
+    <t>¿Cuál es su propuesta para que el trabajo en equipo en la compañía permita mejorar la comunicación al interior de ella?</t>
+  </si>
+  <si>
+    <t>¿Qué estrategias propone para que el trabajo en equipo en la compañía permita mejorar la comunicación entre las diferentes áreas?</t>
+  </si>
+  <si>
+    <t>¿Qué sugerencias tiene para que el trabajo en equipo en la compañía permita lograr la mejora continua en nuestros procesos?</t>
+  </si>
+  <si>
+    <t>Siesa</t>
+  </si>
+  <si>
+    <t>Cuadro de control de producción</t>
+  </si>
+  <si>
+    <t>Inventarios de producto nacional</t>
+  </si>
+  <si>
+    <t>Cuadro de seguimiento de la venta</t>
+  </si>
+  <si>
+    <t>Cuadro seguimiento de facturas</t>
+  </si>
+  <si>
+    <t>Tablero físico de control</t>
+  </si>
+  <si>
+    <t>Panel de control operativo</t>
+  </si>
+  <si>
+    <t>Indicadores de seguimiento</t>
+  </si>
+  <si>
+    <t>UNOEE</t>
+  </si>
+  <si>
+    <t>Documento del área de operaciones</t>
+  </si>
+  <si>
+    <t>Herramientas</t>
+  </si>
+  <si>
+    <t>Consulta de procedimientos en la Intranet</t>
+  </si>
+  <si>
+    <t>Narrativa</t>
+  </si>
+  <si>
+    <t>narrative</t>
+  </si>
+  <si>
+    <t>narrativa</t>
+  </si>
+  <si>
+    <t>Narrative</t>
   </si>
 </sst>
 </file>
@@ -727,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -769,10 +833,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -829,7 +892,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -935,7 +998,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1077,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,16 +1154,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1117,12 +1180,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
         <v>45352</v>
@@ -1142,190 +1205,197 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D787E12B-D605-4928-A0CC-8A4E7610017F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="130.7109375" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="121.6640625" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1341,703 +1411,703 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="80.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="80.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>202</v>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="17">
+        <v>90</v>
+      </c>
+      <c r="J15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -2052,23 +2122,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA2059D-6C61-454C-A9B8-08A3C88D6682}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2076,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2084,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2092,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2100,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2108,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2116,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2124,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2132,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2140,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2148,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2156,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2164,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2172,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2180,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2188,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2196,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2204,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2212,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2220,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2228,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2236,7 +2308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2244,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2252,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2260,7 +2332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2268,12 +2340,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3042CE92-63A8-44A4-B4EF-831678C97DF5}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="120.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2289,14 +2434,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2307,125 +2452,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2441,16 +2586,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2470,55 +2615,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>3456435</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>4563456</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>35673</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2533,21 +2678,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA62681-7E2B-4B35-BC8A-E80E4595026B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2581,72 +2726,89 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2656,18 +2818,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913923E1-7AD3-4169-8C27-23573B1FF763}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2675,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2683,28 +2845,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2717,28 +2871,28 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2749,59 +2903,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2811,24 +2965,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3A88F-AA65-4A26-9859-BBB38B053428}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="91.140625" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" customWidth="1"/>
+    <col min="7" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2839,877 +2993,1163 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" t="s">
-        <v>90</v>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3726,13 +4166,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3746,46 +4186,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3795,35 +4235,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E487C1-7907-4E12-B779-39278A63ADAD}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3832,10 +4272,10 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3844,10 +4284,10 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3856,51 +4296,62 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>17</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
